--- a/questions.xlsx
+++ b/questions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>question</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>бриджманит/ MgSiO3</t>
+  </si>
+  <si>
+    <t>comment_photo</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/FNCwTQO7ugx8WA</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,9 +445,10 @@
     <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +458,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,8 +475,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -494,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -508,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>question</t>
   </si>
@@ -27,71 +27,433 @@
     <t>comment</t>
   </si>
   <si>
-    <t>четыре/ 4</t>
-  </si>
-  <si>
-    <t>Россия/ Российская Федерация</t>
-  </si>
-  <si>
-    <t>Лужники</t>
-  </si>
-  <si>
-    <t>2 + 2 = 4</t>
-  </si>
-  <si>
-    <t>На фото Воробьёвы горы</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/t9Hl4OFyQgOJGw</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/fkRIDvps0nEUdA</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/wjCWdO3ITj3Ryg</t>
+    <t>comment_photo</t>
+  </si>
+  <si>
+    <t>Гараж Стефана Маага расположен рядом с водопадом высотой 3,5 м, на котором Стефан установил небольшой генератор. Высота водопада Анхель - 1054 метра</t>
+  </si>
+  <si>
+    <t>Анхель/ водопад Анхель</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/t4LjvrCFkWuK2Q</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/9uBduJkVkdpgpw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/qEmxtt35majN1g</t>
+  </si>
+  <si>
+    <t>отпечатки пальцев</t>
+  </si>
+  <si>
+    <t>Как у каждого человека уникальные отпечатки пальцев, так и у разных типов нефти свои уникальные биомаркеры</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/CyFvss6uRbI35g</t>
+  </si>
+  <si>
+    <t>В пустынном Бахрейне сто лет назад вода была гораздо важнее нефти</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/1d1NlKdpALfxkQ</t>
+  </si>
+  <si>
+    <t>подсолнухи</t>
+  </si>
+  <si>
+    <t>Разработанные устройства следуют за солнцем в течение дня, как и подсолнухи. “Подсолнухи” - известная серия картин Винсента Ван Гога</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Z9OcIqTBc-R1gA</t>
+  </si>
+  <si>
+    <t>вода/ воду</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/OhFwVQFZ-S0nqA</t>
+  </si>
+  <si>
+    <t>Газпром/ ПАО Газпром</t>
+  </si>
+  <si>
+    <t>Девиз Гургаона - “здесь сбываются мечты”</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/pGymCTgp0iIGwg</t>
+  </si>
+  <si>
+    <t>Дон Кихот</t>
+  </si>
+  <si>
+    <t>тоже воюют с ветряными мельницами</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/uB_2rcf0FqQAUA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/g25HcvPu54vqsQ</t>
+  </si>
+  <si>
+    <t>Шугуровский музей нефти/ Шугуровский музей</t>
+  </si>
+  <si>
+    <t>В 2015 году в Шугурово,  на месте демонтированного Шугуровского битумного завода, первого промышленного предприятия края,  внесшего весомый вклад в развитие нефтяной отрасли Татарстана,  был создан музей нефти под открытым небом.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/a850rfSZt5ISRg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/RUAW5JQQQbdBUQ</t>
+  </si>
+  <si>
+    <t>черная дыра/ чёрная дыра</t>
+  </si>
+  <si>
+    <t>Действие фильма “Интерстеллар” происходит в космосе. Угольная шахта - в некотором роде черная дыра на поверхности земли</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/TSbP2EbQiaEN0g</t>
+  </si>
+  <si>
+    <t>скунс</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/dBpDWZTh-loelA</t>
+  </si>
+  <si>
+    <t>Примесь серы характеризуется резким неприятным запахом</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/j_EybPNaLAQcYA</t>
+  </si>
+  <si>
+    <t>Чернобыль/ Припять</t>
+  </si>
+  <si>
+    <t>Чернобыльская АЭС была построена в том числе и для обслуживания “Дуги”, поставляя ей основную часть энергии. После аварии 1986 года эксплуатация станции постепенно прекратилась</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/7maXJa02-cre6Q</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ZVWcW9j1nXaGpw</t>
+  </si>
+  <si>
+    <t>вскипятить воду/ нагреть воду</t>
+  </si>
+  <si>
+    <t>После интенсивной стрельбы пулемет настолько нагревался, что можно было вскипятить небольшое количество воды - как раз хватало на чашечку традиционного британского чая</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/aDXE67LZOXjBCw</t>
+  </si>
+  <si>
+    <t>пустыня Сахара/ Сахара</t>
+  </si>
+  <si>
+    <t>По словам Каку, скоро страны обратят внимание на места с большим количеством солнца, например, на пустыни. Самая большая из пустынь - Сахара - сейчас уже больше Бразилиии и продолжает расти</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/8kQMj3EUduRy3A</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/B5pD4oh-rRPODQ</t>
+  </si>
+  <si>
+    <t>мазут</t>
   </si>
   <si>
     <r>
-      <t>Территория России ставляет 17 125 191</t>
+      <t>Мазут</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF202122"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>км²</t>
+      <t> — жидкий продукт тёмно-коричневого, иногда чёрного цвета, остаток после выделения из нефти или продуктов её вторичной переработки бензиновых, керосиновых и газойлевых фракций, выкипающих до 350—360°С.</t>
     </r>
   </si>
   <si>
-    <t>https://yadi.sk/i/2t8Z960_ODoznw</t>
-  </si>
-  <si>
-    <t>На сегодняшний день цена составляет 41,66 $</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/kSJBZ0e2fs8Zcg</t>
-  </si>
-  <si>
-    <t>Бриджманит (MgSiO3) самый распространенный на Земле минерал - он составляет почти 40% от всего объема планеты</t>
-  </si>
-  <si>
-    <t>бриджманит/ MgSiO3</t>
-  </si>
-  <si>
-    <t>comment_photo</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/FNCwTQO7ugx8WA</t>
+    <t>https://yadi.sk/i/SYJ8Hg4AFvAmLA</t>
+  </si>
+  <si>
+    <t>лежачий полицейский/ искусственная неровность</t>
+  </si>
+  <si>
+    <t>При переезде лежачего полицейского автомобилем специальные детали начинают генерировать электричество, которое можно использовать для освещения “зебр”, с которыми лежащие полицейские нередко располагаются рядом</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/tjuthkEFLGARIQ</t>
+  </si>
+  <si>
+    <t>консервы</t>
+  </si>
+  <si>
+    <t>Эти слова пренадлежат русскому ученому Клименту Аркадьевичу Тимирязеву, специалисту по физиологии растений, крупному исследователю фотосинтеза</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/18vQT7H5UZ_VbQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/c8RMhm3kN21U5g</t>
+  </si>
+  <si>
+    <t>пиво</t>
+  </si>
+  <si>
+    <t>Которым шахтеры расслаблялись после трудных смен</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/dIrmE7_f9U2RfA</t>
+  </si>
+  <si>
+    <t>Моисей</t>
+  </si>
+  <si>
+    <t>Который 40 лет водил народ по пустыне</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ZOt30RHqPIPAAw</t>
+  </si>
+  <si>
+    <t>солнечные батареи/ солнечные панели</t>
+  </si>
+  <si>
+    <t>Кислотно-основное взаимодействие вдохновило ученых использовать графеновые электроды для получения энергии от воздействия на солнечные панели дождевых капель</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/LYKhCPA1_pPf0Q</t>
+  </si>
+  <si>
+    <t>медь</t>
+  </si>
+  <si>
+    <t>В статье говорится, что электричество в России “зеленеет”. Медь с течением времени окисляется и покрывается зеленой пленкой</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/02Iyn1w9aFHl3Q</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/1AZYijjS0YhRTg</t>
+  </si>
+  <si>
+    <t>Час Земли</t>
+  </si>
+  <si>
+    <t>Критики говорят, что отключив электричество на час, по истечении этого времени множество пользователей одновременно попытаются его использовать</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/OoBto9ogPY6WGg</t>
+  </si>
+  <si>
+    <t>он родился/ родился/ рождение</t>
+  </si>
+  <si>
+    <t>Его родители провели блэкаут с пользой</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/lSvsLLwVI5cLHQ</t>
+  </si>
+  <si>
+    <t>сжигание попутного газа/ сжигание газа/ утилизация попутного газа/ утилизация газа/ попутный газ</t>
+  </si>
+  <si>
+    <t>Татнефть приняла 3-летнюю программу по внедрению микротурбинных энергоустановок "Capstone", работающих на попутном нефтяном газе</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/klnn0_UP6T9xoQ</t>
+  </si>
+  <si>
+    <t>Азербайджану принадлежит часть акватории Каспийского моря, известного своими осетровыми</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/HI2fctBDyyEYAQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/2rY9H8yS_ovdnw</t>
+  </si>
+  <si>
+    <t>Луна</t>
+  </si>
+  <si>
+    <t>Особая конструкция в виде стеклянной сферы позволяет собирать даже рассеянный лунный свет</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/XT6tk4x73zbjQQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/2hD2ipDkSAr6Sw</t>
+  </si>
+  <si>
+    <t>айсберг/ айсберги</t>
+  </si>
+  <si>
+    <t>Айсберги могут нанести ущерб опорам платформы и оборудованию, поэтому мелкие айсберги растворяют, а крупные - буксируют в сторону. Канада расположена на севере</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/qsVth5npdbmQAg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ckMxsIlLBk59sg</t>
+  </si>
+  <si>
+    <t>шёлковый путь/ шелковый путь</t>
+  </si>
+  <si>
+    <t>В древние времена шелк доставлялся из Китая в Европу на Ближний Восток</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/alyxmkY3_uRISw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/7JMUGH8ULkDPJw</t>
+  </si>
+  <si>
+    <t>мыльный пузырь</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/OK4W3om3-5cfTA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/5o46luPhC7HV8A</t>
+  </si>
+  <si>
+    <t>метро/ метрополитен</t>
+  </si>
+  <si>
+    <t>для строительства нужны были и работники, прокладывавшие туннели под землей, и работники, укрепляющие эти туннели</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Uq4KMaxKTJ0beg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Iw-wKAcrcs-PhQ</t>
+  </si>
+  <si>
+    <t>мусор/ отходы</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/GohgrTEWz762mg</t>
+  </si>
+  <si>
+    <t>пожар</t>
+  </si>
+  <si>
+    <t>Авария на шахте спровоцировала возгорание залежей угля, который тушили 130 лет</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Lw60keeKFar3xg</t>
+  </si>
+  <si>
+    <t>пластиковая бутылка</t>
+  </si>
+  <si>
+    <t>Не только Зидан пинал бутылку и представлял, что это мяч</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/FZ9GU0Qb6TgDxA</t>
+  </si>
+  <si>
+    <t>корзина</t>
+  </si>
+  <si>
+    <t>Согласно этой шутке, раздельный сбор мусора теперь есть даже в системах Windows</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ty7eDsUlF8KLIA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/z85fh3FGVFzCaw</t>
+  </si>
+  <si>
+    <t>падение Тунгусского метеорита/ Тунгусский метеорит</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/gRiADsZjFIblUg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/hQTikQ4gSYqzxQ</t>
+  </si>
+  <si>
+    <t>грозы/ гроза / молнии/ молния</t>
+  </si>
+  <si>
+    <t>Частички сажи вырабатывают электричество, а удар молнии смертельно опасен для наполненного нефтью танкера</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/B7JN1ycUfD7RAw</t>
+  </si>
+  <si>
+    <t>велосипеды</t>
+  </si>
+  <si>
+    <t>Топливо для автомобилей сразу стало дефицитом, но потребность в передвижении никуда не делась. Япония входит в топ-10 стран по количеству велосипедов, уступая Нидерландам, Дании, Швеции и нескольким другим</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Vo5rPNFb3He1JA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/t3uumOH1VbX00A</t>
+  </si>
+  <si>
+    <t>электромобили</t>
+  </si>
+  <si>
+    <t>Эллада расшифровывается как “Элетрическая Лада”. Штепсельная вилка в статье заменяет заправочный пистолет</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/3NtaVPXd391Z8Q</t>
+  </si>
+  <si>
+    <t>озоновые дыры</t>
+  </si>
+  <si>
+    <t>Наша планета получает озон в основном во время гроз, спутники будут моделировать их искусственно. Слово “заштопать” - игра слов с обычными дырами</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/SJgnyWtLG5M4Nw</t>
+  </si>
+  <si>
+    <t>Панамский канал</t>
+  </si>
+  <si>
+    <t>В данный момент танкеры редко пользуются Панамским каналом из-за его небольших размеров. Никарагуанский канал должен значительно снизить путь для танкеров между океанами</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Prulo-7cm5xlDw</t>
+  </si>
+  <si>
+    <t>Кубок Гагарина</t>
+  </si>
+  <si>
+    <t>В 2018 году Кубок Гагарина выиграла команда “Ак Барс”, чьим спонсором является компания “Татнефть”, а за два года до этого обладателем Кубка стал магнитогорский “Металлург”, чьим спонсором является Магнитогорский металлургический комбинат</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/-1Z15gbi0IbTMw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/VjYE4V76-oGDjQ</t>
+  </si>
+  <si>
+    <t>кофе</t>
+  </si>
+  <si>
+    <t>черная икра/ чёрная икра/ икра</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +463,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -132,7 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,16 +803,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -459,24 +828,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -484,55 +853,599 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2008</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -383,9 +383,6 @@
     <t>https://yadi.sk/i/hQTikQ4gSYqzxQ</t>
   </si>
   <si>
-    <t>грозы/ гроза / молнии/ молния</t>
-  </si>
-  <si>
     <t>Частички сажи вырабатывают электричество, а удар молнии смертельно опасен для наполненного нефтью танкера</t>
   </si>
   <si>
@@ -447,6 +444,9 @@
   </si>
   <si>
     <t>черная икра/ чёрная икра/ икра</t>
+  </si>
+  <si>
+    <t>грозы/ гроза/ молнии/ молния</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1174,7 @@
         <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>80</v>
@@ -1352,10 +1352,10 @@
         <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1363,16 +1363,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" t="s">
         <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1380,13 +1380,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,13 +1408,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1422,16 +1422,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" t="s">
         <v>135</v>
-      </c>
-      <c r="E40" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,10 +1439,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>96</v>
